--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 5.xlsx_with_dialog_acts.xlsx
@@ -1100,12 +1100,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1578,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2014,12 +2014,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
